--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/金融业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/金融业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,539 +558,231 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1172749.6</v>
+        <v>6834849.57425676</v>
       </c>
       <c r="C2" t="n">
-        <v>237279.64</v>
+        <v>5101757.85992303</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>95516.39999999999</v>
+        <v>1092664.71337554</v>
       </c>
       <c r="F2" t="n">
-        <v>622106</v>
+        <v>466196.649517589</v>
       </c>
       <c r="G2" t="n">
-        <v>3959280</v>
+        <v>29995727.2528328</v>
       </c>
       <c r="H2" t="n">
-        <v>847051</v>
+        <v>13255060.4569699</v>
       </c>
       <c r="I2" t="n">
-        <v>1723640.7</v>
+        <v>4448405.54989533</v>
       </c>
       <c r="J2" t="n">
-        <v>143604.45</v>
+        <v>2035928.797504</v>
       </c>
       <c r="K2" t="n">
-        <v>218178</v>
+        <v>3205635.47370969</v>
       </c>
       <c r="L2" t="n">
-        <v>85554.37</v>
+        <v>895038.755014168</v>
       </c>
       <c r="M2" t="n">
-        <v>1525555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>17183</v>
-      </c>
+        <v>18570979.0658719</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>55395.6</v>
+        <v>291246.216960493</v>
       </c>
       <c r="P2" t="n">
-        <v>13224800.74</v>
+        <v>113059491.621805</v>
       </c>
       <c r="Q2" t="n">
-        <v>15506897.0100721</v>
+        <v>66609818.8203929</v>
       </c>
       <c r="R2" t="n">
-        <v>3208592.06569835</v>
+        <v>4919116.9553276</v>
       </c>
       <c r="S2" t="n">
-        <v>38426789.0291475</v>
+        <v>209806333.915195</v>
       </c>
       <c r="T2" t="n">
-        <v>51651589.7691475</v>
+        <v>322865825.537</v>
       </c>
       <c r="U2" t="n">
-        <v>2474000</v>
+        <v>25911913.586989</v>
       </c>
       <c r="V2" t="n">
-        <v>12413824.642532</v>
+        <v>25551609.4219278</v>
       </c>
       <c r="W2" t="n">
-        <v>7297475.31084516</v>
+        <v>112725788.717547</v>
       </c>
       <c r="X2" t="n">
-        <v>41455</v>
+        <v>51724.7274786355</v>
       </c>
       <c r="Y2" t="n">
-        <v>6251.98</v>
+        <v>902362.941506249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6100944.08543727</v>
+        <v>19648448.6680794</v>
       </c>
       <c r="C3" t="n">
-        <v>2504683.56375998</v>
+        <v>15412768.3568149</v>
       </c>
       <c r="D3" t="n">
-        <v>113677.829886887</v>
+        <v>6440.62310165176</v>
       </c>
       <c r="E3" t="n">
-        <v>654988.474173535</v>
+        <v>516472.728476158</v>
       </c>
       <c r="F3" t="n">
-        <v>3697727.53239194</v>
+        <v>5071291.01610164</v>
       </c>
       <c r="G3" t="n">
-        <v>8025661.10222894</v>
+        <v>91481906.35912029</v>
       </c>
       <c r="H3" t="n">
-        <v>6479816.47272622</v>
+        <v>27608869.721571</v>
       </c>
       <c r="I3" t="n">
-        <v>26819656.2535972</v>
+        <v>2896320.02005125</v>
       </c>
       <c r="J3" t="n">
-        <v>508050.088576902</v>
+        <v>2468447.97202774</v>
       </c>
       <c r="K3" t="n">
-        <v>2361386.79108658</v>
+        <v>3540103.19257562</v>
       </c>
       <c r="L3" t="n">
-        <v>378748.499927551</v>
+        <v>3342153.57535739</v>
       </c>
       <c r="M3" t="n">
-        <v>2445889.97870778</v>
-      </c>
-      <c r="N3" t="n">
-        <v>432646.873210403</v>
-      </c>
+        <v>28096102.1449671</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>1930527.89337756</v>
+        <v>79606.25825471561</v>
       </c>
       <c r="P3" t="n">
-        <v>71168198.653358</v>
+        <v>238262754.60233</v>
       </c>
       <c r="Q3" t="n">
-        <v>23742432.2672386</v>
+        <v>110239772.093776</v>
       </c>
       <c r="R3" t="n">
-        <v>40344121.1732217</v>
+        <v>9100455.96514643</v>
       </c>
       <c r="S3" t="n">
-        <v>102138120.680956</v>
+        <v>351877499.686977</v>
       </c>
       <c r="T3" t="n">
-        <v>173306319.334314</v>
+        <v>590140254.289307</v>
       </c>
       <c r="U3" t="n">
-        <v>7589118.13798811</v>
+        <v>36484766.390961</v>
       </c>
       <c r="V3" t="n">
-        <v>11241912.8025421</v>
+        <v>39314016.1061542</v>
       </c>
       <c r="W3" t="n">
-        <v>26809654.4379537</v>
+        <v>193223255.5219</v>
       </c>
       <c r="X3" t="n">
-        <v>917321.1121628711</v>
+        <v>50870.1780865954</v>
       </c>
       <c r="Y3" t="n">
-        <v>207353.964118266</v>
+        <v>1558187.39678337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2146763.18717484</v>
+        <v>22211871.9978264</v>
       </c>
       <c r="C4" t="n">
-        <v>2303014.0669695</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>18148603.7920608</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6587.77584698564</v>
+      </c>
       <c r="E4" t="n">
-        <v>495730.783070593</v>
+        <v>468142.899355579</v>
       </c>
       <c r="F4" t="n">
-        <v>2297277.21801085</v>
+        <v>4017805.20823204</v>
       </c>
       <c r="G4" t="n">
-        <v>6431620.72011627</v>
+        <v>113372742.276055</v>
       </c>
       <c r="H4" t="n">
-        <v>4285437.74598977</v>
+        <v>34947832.7228013</v>
       </c>
       <c r="I4" t="n">
-        <v>3580781.30364914</v>
+        <v>2757120.78095619</v>
       </c>
       <c r="J4" t="n">
-        <v>532233.827910518</v>
+        <v>1493347.22315837</v>
       </c>
       <c r="K4" t="n">
-        <v>1284436.29339612</v>
+        <v>2851415.21033333</v>
       </c>
       <c r="L4" t="n">
-        <v>402183.210739453</v>
+        <v>3930795.56472544</v>
       </c>
       <c r="M4" t="n">
-        <v>8931559.934518149</v>
+        <v>37455251.8126279</v>
       </c>
       <c r="N4" t="n">
-        <v>55664.4634202872</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>218692.408264827</v>
+        <v>58086.5017506695</v>
       </c>
       <c r="P4" t="n">
-        <v>39472396.9940885</v>
+        <v>303686667.856588</v>
       </c>
       <c r="Q4" t="n">
-        <v>24974024.9127832</v>
+        <v>174313912.056658</v>
       </c>
       <c r="R4" t="n">
-        <v>1464898.28893972</v>
+        <v>10093433.4981524</v>
       </c>
       <c r="S4" t="n">
-        <v>63143753.8181883</v>
+        <v>578720517.169263</v>
       </c>
       <c r="T4" t="n">
-        <v>102616150.812277</v>
+        <v>882407185.025851</v>
       </c>
       <c r="U4" t="n">
-        <v>6357392.72379933</v>
+        <v>59578886.8721133</v>
       </c>
       <c r="V4" t="n">
-        <v>7734732.71377011</v>
+        <v>74253419.8637028</v>
       </c>
       <c r="W4" t="n">
-        <v>28970097.9026953</v>
+        <v>320059751.75075</v>
       </c>
       <c r="X4" t="n">
-        <v>134717.80247147</v>
+        <v>54565.8657233226</v>
       </c>
       <c r="Y4" t="n">
-        <v>14891.3045874176</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5311643.67455873</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4097317.66233017</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>550568.7687005911</v>
-      </c>
-      <c r="F5" t="n">
-        <v>248237.333150862</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13817731.3158219</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8113192.93926834</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2374149.03309369</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1224492.30958504</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1810297.82442586</v>
-      </c>
-      <c r="L5" t="n">
-        <v>451913.222728778</v>
-      </c>
-      <c r="M5" t="n">
-        <v>9428755.775022401</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>128581.656427133</v>
-      </c>
-      <c r="P5" t="n">
-        <v>60497405.4413363</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>34887740.7410449</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1938269.18093896</v>
-      </c>
-      <c r="S5" t="n">
-        <v>134312834.61754</v>
-      </c>
-      <c r="T5" t="n">
-        <v>194810240.058876</v>
-      </c>
-      <c r="U5" t="n">
-        <v>12505566.8328775</v>
-      </c>
-      <c r="V5" t="n">
-        <v>15160685.772997</v>
-      </c>
-      <c r="W5" t="n">
-        <v>82326138.9225587</v>
-      </c>
-      <c r="X5" t="n">
-        <v>29130.2278538981</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>405826.86549139</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6834849.57425676</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5101757.85992303</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>1092664.71337554</v>
-      </c>
-      <c r="F6" t="n">
-        <v>466196.649517589</v>
-      </c>
-      <c r="G6" t="n">
-        <v>29995727.2528328</v>
-      </c>
-      <c r="H6" t="n">
-        <v>13255060.4569699</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4448405.54989533</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2035928.797504</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3205635.47370969</v>
-      </c>
-      <c r="L6" t="n">
-        <v>895038.755014168</v>
-      </c>
-      <c r="M6" t="n">
-        <v>18570979.0658719</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>291246.216960493</v>
-      </c>
-      <c r="P6" t="n">
-        <v>113059491.621805</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>66609818.8203929</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4919116.9553276</v>
-      </c>
-      <c r="S6" t="n">
-        <v>209806333.915195</v>
-      </c>
-      <c r="T6" t="n">
-        <v>322865825.537</v>
-      </c>
-      <c r="U6" t="n">
-        <v>25911913.586989</v>
-      </c>
-      <c r="V6" t="n">
-        <v>25551609.4219278</v>
-      </c>
-      <c r="W6" t="n">
-        <v>112725788.717547</v>
-      </c>
-      <c r="X6" t="n">
-        <v>51724.7274786355</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>902362.941506249</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>19648448.6680794</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15412768.3568149</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6440.62310165176</v>
-      </c>
-      <c r="E7" t="n">
-        <v>516472.728476158</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5071291.01610164</v>
-      </c>
-      <c r="G7" t="n">
-        <v>91481906.35912029</v>
-      </c>
-      <c r="H7" t="n">
-        <v>27608869.721571</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2896320.02005125</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2468447.97202774</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3540103.19257562</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3342153.57535739</v>
-      </c>
-      <c r="M7" t="n">
-        <v>28096102.1449671</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>79606.25825471561</v>
-      </c>
-      <c r="P7" t="n">
-        <v>238262754.60233</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>110239772.093776</v>
-      </c>
-      <c r="R7" t="n">
-        <v>9100455.96514643</v>
-      </c>
-      <c r="S7" t="n">
-        <v>351877499.686977</v>
-      </c>
-      <c r="T7" t="n">
-        <v>590140254.289307</v>
-      </c>
-      <c r="U7" t="n">
-        <v>36484766.390961</v>
-      </c>
-      <c r="V7" t="n">
-        <v>39314016.1061542</v>
-      </c>
-      <c r="W7" t="n">
-        <v>193223255.5219</v>
-      </c>
-      <c r="X7" t="n">
-        <v>50870.1780865954</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1558187.39678337</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22211871.9978264</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18148603.7920608</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6587.77584698564</v>
-      </c>
-      <c r="E8" t="n">
-        <v>468142.899355579</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4017805.20823204</v>
-      </c>
-      <c r="G8" t="n">
-        <v>113372742.276055</v>
-      </c>
-      <c r="H8" t="n">
-        <v>34947832.7228013</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2757120.78095619</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1493347.22315837</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2851415.21033333</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3930795.56472544</v>
-      </c>
-      <c r="M8" t="n">
-        <v>37455251.8126279</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>58086.5017506695</v>
-      </c>
-      <c r="P8" t="n">
-        <v>303686667.856588</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>174313912.056658</v>
-      </c>
-      <c r="R8" t="n">
-        <v>10093433.4981524</v>
-      </c>
-      <c r="S8" t="n">
-        <v>578720517.169263</v>
-      </c>
-      <c r="T8" t="n">
-        <v>882407185.025851</v>
-      </c>
-      <c r="U8" t="n">
-        <v>59578886.8721133</v>
-      </c>
-      <c r="V8" t="n">
-        <v>74253419.8637028</v>
-      </c>
-      <c r="W8" t="n">
-        <v>320059751.75075</v>
-      </c>
-      <c r="X8" t="n">
-        <v>54565.8657233226</v>
-      </c>
-      <c r="Y8" t="n">
         <v>2333611.3530218</v>
       </c>
     </row>
